--- a/test/functional/xlsx_files/panes01.xlsx
+++ b/test/functional/xlsx_files/panes01.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
     <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
